--- a/data/trans_dic/P02E$nadie-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P02E$nadie-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>85,69; 95,32</t>
+          <t>84,91; 95,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,17; 90,98</t>
+          <t>80,42; 91,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,97; 91,56</t>
+          <t>79,97; 91,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,39; 92,82</t>
+          <t>85,0; 93,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>85,55; 92,38</t>
+          <t>86,04; 92,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,33; 93,69</t>
+          <t>84,24; 93,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,83; 92,83</t>
+          <t>86,49; 92,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>85,55; 90,99</t>
+          <t>85,52; 91,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,33; 91,81</t>
+          <t>84,69; 91,73</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,58; 95,35</t>
+          <t>89,79; 95,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,78; 95,4</t>
+          <t>91,69; 95,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,36; 94,87</t>
+          <t>90,0; 94,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,89; 94,39</t>
+          <t>90,13; 94,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,31; 94,8</t>
+          <t>91,48; 94,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,32; 91,18</t>
+          <t>86,19; 90,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,68; 94,14</t>
+          <t>90,83; 94,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,11; 94,7</t>
+          <t>92,09; 94,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 92,03</t>
+          <t>88,66; 92,01</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,37; 84,92</t>
+          <t>70,43; 84,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,07; 92,89</t>
+          <t>82,31; 92,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,8; 94,87</t>
+          <t>84,61; 94,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,46; 95,71</t>
+          <t>87,05; 95,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,94; 93,05</t>
+          <t>83,8; 92,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,19; 87,54</t>
+          <t>76,63; 87,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>81,4; 89,74</t>
+          <t>81,74; 89,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>85,3; 91,82</t>
+          <t>84,53; 91,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,1; 89,33</t>
+          <t>81,54; 89,47</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>87,12; 92,02</t>
+          <t>87,2; 92,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,43; 93,14</t>
+          <t>89,53; 93,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,08; 93,29</t>
+          <t>89,18; 93,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,79; 93,35</t>
+          <t>89,69; 93,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,92</t>
+          <t>90,06; 93,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,68; 89,63</t>
+          <t>85,53; 89,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,36; 92,31</t>
+          <t>89,37; 92,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,38; 92,68</t>
+          <t>90,41; 92,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>87,66; 90,56</t>
+          <t>87,6; 90,51</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares que no tienen ayuda al cuidado por parte de una persona externa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103158</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>156276</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>110518</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>243421</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>347731</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>177376</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>346580</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>504007</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>287894</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>96183; 108017</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>145610; 164939</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>102001; 116872</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>230453; 252222</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>334013; 358951</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>166737; 185070</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>332496; 357160</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>486837; 518434</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>275661; 298554</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1341</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>360189</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>586117</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>445502</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>525489</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>843574</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>619226</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>885678</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1429691</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1064727</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>347209; 368849</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>573115; 596644</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>432101; 455265</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>512257; 536920</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>827794; 857251</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>601148; 634556</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>867457; 900440</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1408834; 1446778</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1043956; 1083430</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>98532</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>156508</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>131131</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>153140</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>198809</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>175640</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>251671</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>355317</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>306772</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88908; 107217</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>145711; 163890</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>122265; 136871</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>144803; 159093</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>187591; 207699</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>163659; 186067</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>239162; 262201</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>338884; 366702</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>291981; 320379</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>886</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1286</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1426</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2134</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1598</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>561879</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>898901</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>687151</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>922050</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1390114</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>972242</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1483929</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2289015</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1659393</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>546033; 577409</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>880169; 916169</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>670768; 700613</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>902148; 938991</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1366090; 1411974</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>948471; 993358</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1458464; 1506307</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2260191; 2316795</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1630247; 1684476</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>